--- a/Assets/Hama/Item/ItemDB.xlsx
+++ b/Assets/Hama/Item/ItemDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiroa\Desktop\制作関連\Unity\30_Seconds2020334f1\Assets\Hama\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FF445430-F3F4-4153-9014-32B8B34B954B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB7C7CD-FB15-4981-BF3B-FE8FA434E5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="585" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -269,13 +269,24 @@
   </si>
   <si>
     <t>赤ランプ(点灯)</t>
+  </si>
+  <si>
+    <t>Assets\Scripts\tacagi\scripts\Item\1024px-Multiplication_Sign.svg.png</t>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>image値はAssetフォルダから</t>
+    <rPh sb="5" eb="6">
+      <t>チ</t>
+    </rPh>
+    <phoneticPr fontId="4"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -303,6 +314,20 @@
       <name val="Arial"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -373,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -390,6 +415,8 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -610,7 +637,9 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
@@ -650,7 +679,9 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="1"/>
+      <c r="D2" s="10" t="s">
+        <v>83</v>
+      </c>
       <c r="E2" s="5">
         <v>0</v>
       </c>
@@ -674,6 +705,9 @@
       </c>
       <c r="F3" s="5">
         <v>0</v>
+      </c>
+      <c r="H3" s="11" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">

--- a/Assets/Hama/Item/ItemDB.xlsx
+++ b/Assets/Hama/Item/ItemDB.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiroa\Desktop\制作関連\Unity\30_Seconds2020334f1\Assets\Hama\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EB7C7CD-FB15-4981-BF3B-FE8FA434E5CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD283C0-788C-4714-8188-D9BCE8D4707D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="585" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
   <si>
     <t>ID</t>
   </si>
@@ -269,16 +269,16 @@
   </si>
   <si>
     <t>赤ランプ(点灯)</t>
-  </si>
-  <si>
-    <t>Assets\Scripts\tacagi\scripts\Item\1024px-Multiplication_Sign.svg.png</t>
-    <phoneticPr fontId="4"/>
   </si>
   <si>
     <t>image値はAssetフォルダから</t>
     <rPh sb="5" eb="6">
       <t>チ</t>
     </rPh>
+    <phoneticPr fontId="4"/>
+  </si>
+  <si>
+    <t>Assets\Hama\Resources\Item\1024px-Multiplication_Sign.svg.png</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -638,7 +638,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="D3" sqref="D3:D49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -680,7 +680,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -699,7 +699,9 @@
       <c r="C3" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="1"/>
+      <c r="D3" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
@@ -707,7 +709,7 @@
         <v>0</v>
       </c>
       <c r="H3" s="11" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -720,7 +722,9 @@
       <c r="C4" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D4" s="1"/>
+      <c r="D4" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E4" s="5">
         <v>0</v>
       </c>
@@ -741,7 +745,9 @@
       <c r="C5" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D5" s="1"/>
+      <c r="D5" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E5" s="5">
         <v>0</v>
       </c>
@@ -765,7 +771,9 @@
       <c r="C6" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D6" s="1"/>
+      <c r="D6" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E6" s="5">
         <v>0</v>
       </c>
@@ -789,7 +797,9 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="1"/>
+      <c r="D7" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E7" s="5">
         <v>0</v>
       </c>
@@ -813,7 +823,9 @@
       <c r="C8" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D8" s="1"/>
+      <c r="D8" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E8" s="5">
         <v>0</v>
       </c>
@@ -831,7 +843,9 @@
       <c r="C9" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D9" s="1"/>
+      <c r="D9" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E9" s="5">
         <v>0</v>
       </c>
@@ -852,7 +866,9 @@
       <c r="C10" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="1"/>
+      <c r="D10" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E10" s="5">
         <v>0</v>
       </c>
@@ -876,7 +892,9 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D11" s="1"/>
+      <c r="D11" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E11" s="5">
         <v>0</v>
       </c>
@@ -900,7 +918,9 @@
       <c r="C12" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E12" s="5">
         <v>0</v>
       </c>
@@ -918,7 +938,9 @@
       <c r="C13" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D13" s="1"/>
+      <c r="D13" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E13" s="5">
         <v>0</v>
       </c>
@@ -936,7 +958,9 @@
       <c r="C14" s="1" t="s">
         <v>35</v>
       </c>
-      <c r="D14" s="1"/>
+      <c r="D14" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E14" s="5">
         <v>0</v>
       </c>
@@ -952,7 +976,9 @@
         <v>36</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
+      <c r="D15" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E15" s="5">
         <v>0</v>
       </c>
@@ -970,7 +996,9 @@
       <c r="C16" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D16" s="1"/>
+      <c r="D16" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E16" s="5">
         <v>0</v>
       </c>
@@ -986,7 +1014,9 @@
         <v>39</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1"/>
+      <c r="D17" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E17" s="5">
         <v>0</v>
       </c>
@@ -1004,7 +1034,9 @@
       <c r="C18" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D18" s="1"/>
+      <c r="D18" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E18" s="5">
         <v>0</v>
       </c>
@@ -1022,7 +1054,9 @@
       <c r="C19" s="1" t="s">
         <v>43</v>
       </c>
-      <c r="D19" s="1"/>
+      <c r="D19" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E19" s="5">
         <v>0</v>
       </c>
@@ -1040,7 +1074,9 @@
       <c r="C20" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="D20" s="1"/>
+      <c r="D20" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E20" s="5">
         <v>0</v>
       </c>
@@ -1058,7 +1094,9 @@
       <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D21" s="1"/>
+      <c r="D21" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E21" s="5">
         <v>0</v>
       </c>
@@ -1076,7 +1114,9 @@
       <c r="C22" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="D22" s="1"/>
+      <c r="D22" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E22" s="5">
         <v>0</v>
       </c>
@@ -1094,7 +1134,9 @@
       <c r="C23" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="1"/>
+      <c r="D23" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E23" s="5">
         <v>0</v>
       </c>
@@ -1112,7 +1154,9 @@
       <c r="C24" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D24" s="1"/>
+      <c r="D24" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E24" s="5">
         <v>0</v>
       </c>
@@ -1130,7 +1174,9 @@
       <c r="C25" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D25" s="1"/>
+      <c r="D25" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E25" s="5">
         <v>0</v>
       </c>
@@ -1148,7 +1194,9 @@
       <c r="C26" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="D26" s="1"/>
+      <c r="D26" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E26" s="5">
         <v>0</v>
       </c>
@@ -1166,7 +1214,9 @@
       <c r="C27" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D27" s="1"/>
+      <c r="D27" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E27" s="5">
         <v>0</v>
       </c>
@@ -1184,7 +1234,9 @@
       <c r="C28" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D28" s="1"/>
+      <c r="D28" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E28" s="5">
         <v>0</v>
       </c>
@@ -1202,7 +1254,9 @@
       <c r="C29" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D29" s="1"/>
+      <c r="D29" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E29" s="5">
         <v>0</v>
       </c>
@@ -1220,7 +1274,9 @@
       <c r="C30" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D30" s="1"/>
+      <c r="D30" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E30" s="5">
         <v>0</v>
       </c>
@@ -1238,7 +1294,9 @@
       <c r="C31" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D31" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E31" s="5">
         <v>0</v>
       </c>
@@ -1256,7 +1314,9 @@
       <c r="C32" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="1"/>
+      <c r="D32" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E32" s="5">
         <v>0</v>
       </c>
@@ -1272,7 +1332,9 @@
         <v>64</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
+      <c r="D33" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E33" s="5">
         <v>0</v>
       </c>
@@ -1288,7 +1350,9 @@
         <v>65</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
+      <c r="D34" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E34" s="5">
         <v>0</v>
       </c>
@@ -1306,7 +1370,9 @@
       <c r="C35" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D35" s="1"/>
+      <c r="D35" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E35" s="5">
         <v>0</v>
       </c>
@@ -1324,7 +1390,9 @@
       <c r="C36" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D36" s="1"/>
+      <c r="D36" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E36" s="5">
         <v>0</v>
       </c>
@@ -1342,7 +1410,9 @@
       <c r="C37" s="1" t="s">
         <v>71</v>
       </c>
-      <c r="D37" s="1"/>
+      <c r="D37" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E37" s="5">
         <v>0</v>
       </c>
@@ -1360,7 +1430,9 @@
       <c r="C38" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E38" s="5">
         <v>0</v>
       </c>
@@ -1376,7 +1448,9 @@
         <v>73</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1"/>
+      <c r="D39" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E39" s="5">
         <v>0</v>
       </c>
@@ -1392,7 +1466,9 @@
         <v>74</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1"/>
+      <c r="D40" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E40" s="5">
         <v>0</v>
       </c>
@@ -1410,7 +1486,9 @@
       <c r="C41" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="D41" s="1"/>
+      <c r="D41" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E41" s="5">
         <v>0</v>
       </c>
@@ -1428,7 +1506,9 @@
       <c r="C42" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D42" s="1"/>
+      <c r="D42" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E42" s="5">
         <v>0</v>
       </c>
@@ -1446,7 +1526,9 @@
       <c r="C43" s="1" t="s">
         <v>80</v>
       </c>
-      <c r="D43" s="1"/>
+      <c r="D43" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E43" s="5">
         <v>0</v>
       </c>
@@ -1462,7 +1544,9 @@
         <v>81</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
+      <c r="D44" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E44" s="5">
         <v>0</v>
       </c>
@@ -1478,7 +1562,9 @@
         <v>82</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
+      <c r="D45" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E45" s="5">
         <v>0</v>
       </c>
@@ -1492,7 +1578,9 @@
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
-      <c r="D46" s="1"/>
+      <c r="D46" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E46" s="5">
         <v>0</v>
       </c>
@@ -1506,7 +1594,9 @@
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
-      <c r="D47" s="1"/>
+      <c r="D47" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E47" s="5">
         <v>0</v>
       </c>
@@ -1520,7 +1610,9 @@
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
-      <c r="D48" s="1"/>
+      <c r="D48" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E48" s="5">
         <v>0</v>
       </c>
@@ -1534,7 +1626,9 @@
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
-      <c r="D49" s="1"/>
+      <c r="D49" s="10" t="s">
+        <v>84</v>
+      </c>
       <c r="E49" s="5">
         <v>0</v>
       </c>

--- a/Assets/Hama/Item/ItemDB.xlsx
+++ b/Assets/Hama/Item/ItemDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiroa\Desktop\制作関連\Unity\30_Seconds2020334f1\Assets\Hama\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BD283C0-788C-4714-8188-D9BCE8D4707D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BF84343-1EE4-4BE3-B4A8-717B3749428D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="585" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="84">
   <si>
     <t>ID</t>
   </si>
@@ -271,14 +271,7 @@
     <t>赤ランプ(点灯)</t>
   </si>
   <si>
-    <t>image値はAssetフォルダから</t>
-    <rPh sb="5" eb="6">
-      <t>チ</t>
-    </rPh>
-    <phoneticPr fontId="4"/>
-  </si>
-  <si>
-    <t>Assets\Hama\Resources\Item\1024px-Multiplication_Sign.svg.png</t>
+    <t>Assets/Hama/Resources/Item/1024px-Multiplication_Sign.svg.png</t>
     <phoneticPr fontId="4"/>
   </si>
 </sst>
@@ -286,7 +279,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -319,13 +312,6 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -398,7 +384,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -416,7 +402,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -638,7 +623,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3:D49"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -671,7 +656,7 @@
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>6</v>
@@ -680,7 +665,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E2" s="5">
         <v>0</v>
@@ -691,7 +676,7 @@
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>8</v>
@@ -700,21 +685,18 @@
         <v>9</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E3" s="5">
         <v>0</v>
       </c>
       <c r="F3" s="5">
         <v>0</v>
-      </c>
-      <c r="H3" s="11" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>10</v>
@@ -723,7 +705,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E4" s="5">
         <v>0</v>
@@ -737,7 +719,7 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>12</v>
@@ -746,7 +728,7 @@
         <v>13</v>
       </c>
       <c r="D5" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E5" s="5">
         <v>0</v>
@@ -763,7 +745,7 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>15</v>
@@ -772,7 +754,7 @@
         <v>16</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E6" s="5">
         <v>0</v>
@@ -789,7 +771,7 @@
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>18</v>
@@ -798,7 +780,7 @@
         <v>19</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E7" s="5">
         <v>0</v>
@@ -815,7 +797,7 @@
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>21</v>
@@ -824,7 +806,7 @@
         <v>22</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E8" s="5">
         <v>0</v>
@@ -835,7 +817,7 @@
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>23</v>
@@ -844,7 +826,7 @@
         <v>24</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E9" s="5">
         <v>0</v>
@@ -858,7 +840,7 @@
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>25</v>
@@ -867,7 +849,7 @@
         <v>26</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E10" s="5">
         <v>0</v>
@@ -884,7 +866,7 @@
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>28</v>
@@ -893,7 +875,7 @@
         <v>19</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E11" s="5">
         <v>0</v>
@@ -910,7 +892,7 @@
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>30</v>
@@ -919,7 +901,7 @@
         <v>31</v>
       </c>
       <c r="D12" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="5">
         <v>0</v>
@@ -930,7 +912,7 @@
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="9" t="s">
         <v>32</v>
@@ -939,7 +921,7 @@
         <v>33</v>
       </c>
       <c r="D13" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E13" s="5">
         <v>0</v>
@@ -950,7 +932,7 @@
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>34</v>
@@ -959,7 +941,7 @@
         <v>35</v>
       </c>
       <c r="D14" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E14" s="5">
         <v>0</v>
@@ -970,14 +952,14 @@
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C15" s="1"/>
       <c r="D15" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E15" s="5">
         <v>0</v>
@@ -988,7 +970,7 @@
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16" s="9" t="s">
         <v>37</v>
@@ -997,7 +979,7 @@
         <v>38</v>
       </c>
       <c r="D16" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E16" s="5">
         <v>0</v>
@@ -1008,14 +990,14 @@
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C17" s="1"/>
       <c r="D17" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E17" s="5">
         <v>0</v>
@@ -1026,7 +1008,7 @@
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
         <v>40</v>
@@ -1035,7 +1017,7 @@
         <v>41</v>
       </c>
       <c r="D18" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E18" s="5">
         <v>0</v>
@@ -1046,7 +1028,7 @@
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="9" t="s">
         <v>42</v>
@@ -1055,7 +1037,7 @@
         <v>43</v>
       </c>
       <c r="D19" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E19" s="5">
         <v>0</v>
@@ -1066,7 +1048,7 @@
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="9" t="s">
         <v>44</v>
@@ -1075,7 +1057,7 @@
         <v>19</v>
       </c>
       <c r="D20" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E20" s="5">
         <v>0</v>
@@ -1086,7 +1068,7 @@
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21" s="9" t="s">
         <v>45</v>
@@ -1095,7 +1077,7 @@
         <v>38</v>
       </c>
       <c r="D21" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E21" s="5">
         <v>0</v>
@@ -1106,7 +1088,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22" s="9" t="s">
         <v>46</v>
@@ -1115,7 +1097,7 @@
         <v>47</v>
       </c>
       <c r="D22" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E22" s="5">
         <v>0</v>
@@ -1126,7 +1108,7 @@
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23" s="9" t="s">
         <v>48</v>
@@ -1135,7 +1117,7 @@
         <v>49</v>
       </c>
       <c r="D23" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E23" s="5">
         <v>0</v>
@@ -1146,7 +1128,7 @@
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
         <v>50</v>
@@ -1155,7 +1137,7 @@
         <v>51</v>
       </c>
       <c r="D24" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E24" s="5">
         <v>0</v>
@@ -1166,7 +1148,7 @@
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" s="9" t="s">
         <v>52</v>
@@ -1175,7 +1157,7 @@
         <v>53</v>
       </c>
       <c r="D25" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E25" s="5">
         <v>0</v>
@@ -1186,7 +1168,7 @@
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26" s="9" t="s">
         <v>54</v>
@@ -1195,7 +1177,7 @@
         <v>22</v>
       </c>
       <c r="D26" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E26" s="5">
         <v>0</v>
@@ -1206,7 +1188,7 @@
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
         <v>55</v>
@@ -1215,7 +1197,7 @@
         <v>24</v>
       </c>
       <c r="D27" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E27" s="5">
         <v>0</v>
@@ -1226,7 +1208,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28" s="9" t="s">
         <v>56</v>
@@ -1235,7 +1217,7 @@
         <v>26</v>
       </c>
       <c r="D28" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E28" s="5">
         <v>0</v>
@@ -1246,7 +1228,7 @@
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29" s="1">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
         <v>57</v>
@@ -1255,7 +1237,7 @@
         <v>58</v>
       </c>
       <c r="D29" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E29" s="5">
         <v>0</v>
@@ -1266,7 +1248,7 @@
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30" s="1">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30" s="9" t="s">
         <v>59</v>
@@ -1275,7 +1257,7 @@
         <v>60</v>
       </c>
       <c r="D30" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E30" s="5">
         <v>0</v>
@@ -1286,7 +1268,7 @@
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31" s="1">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31" s="9" t="s">
         <v>61</v>
@@ -1295,7 +1277,7 @@
         <v>62</v>
       </c>
       <c r="D31" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E31" s="5">
         <v>0</v>
@@ -1306,7 +1288,7 @@
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32" s="1">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32" s="9" t="s">
         <v>63</v>
@@ -1315,7 +1297,7 @@
         <v>49</v>
       </c>
       <c r="D32" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E32" s="5">
         <v>0</v>
@@ -1326,14 +1308,14 @@
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33" s="1">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
         <v>64</v>
       </c>
       <c r="C33" s="1"/>
       <c r="D33" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E33" s="5">
         <v>0</v>
@@ -1344,14 +1326,14 @@
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34" s="1">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
         <v>65</v>
       </c>
       <c r="C34" s="1"/>
       <c r="D34" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E34" s="5">
         <v>0</v>
@@ -1362,7 +1344,7 @@
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35" s="1">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B35" s="9" t="s">
         <v>66</v>
@@ -1371,7 +1353,7 @@
         <v>67</v>
       </c>
       <c r="D35" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E35" s="5">
         <v>0</v>
@@ -1382,7 +1364,7 @@
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36" s="1">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B36" s="9" t="s">
         <v>68</v>
@@ -1391,7 +1373,7 @@
         <v>69</v>
       </c>
       <c r="D36" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E36" s="5">
         <v>0</v>
@@ -1402,7 +1384,7 @@
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37" s="1">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B37" s="9" t="s">
         <v>70</v>
@@ -1411,7 +1393,7 @@
         <v>71</v>
       </c>
       <c r="D37" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E37" s="5">
         <v>0</v>
@@ -1422,7 +1404,7 @@
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38" s="1">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
         <v>72</v>
@@ -1431,7 +1413,7 @@
         <v>53</v>
       </c>
       <c r="D38" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E38" s="5">
         <v>0</v>
@@ -1442,14 +1424,14 @@
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39" s="1">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="1"/>
       <c r="D39" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E39" s="5">
         <v>0</v>
@@ -1460,14 +1442,14 @@
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40" s="1">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
         <v>74</v>
       </c>
       <c r="C40" s="1"/>
       <c r="D40" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E40" s="5">
         <v>0</v>
@@ -1478,7 +1460,7 @@
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41" s="1">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
         <v>75</v>
@@ -1487,7 +1469,7 @@
         <v>76</v>
       </c>
       <c r="D41" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E41" s="5">
         <v>0</v>
@@ -1498,7 +1480,7 @@
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42" s="1">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>77</v>
@@ -1507,7 +1489,7 @@
         <v>78</v>
       </c>
       <c r="D42" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E42" s="5">
         <v>0</v>
@@ -1518,7 +1500,7 @@
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43" s="1">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>79</v>
@@ -1527,7 +1509,7 @@
         <v>80</v>
       </c>
       <c r="D43" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E43" s="5">
         <v>0</v>
@@ -1538,14 +1520,14 @@
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44" s="1">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>81</v>
       </c>
       <c r="C44" s="1"/>
       <c r="D44" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E44" s="5">
         <v>0</v>
@@ -1556,14 +1538,14 @@
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45" s="1">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>82</v>
       </c>
       <c r="C45" s="1"/>
       <c r="D45" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E45" s="5">
         <v>0</v>
@@ -1574,12 +1556,12 @@
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46" s="1">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B46" s="1"/>
       <c r="C46" s="1"/>
       <c r="D46" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E46" s="5">
         <v>0</v>
@@ -1590,12 +1572,12 @@
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47" s="1">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47" s="1"/>
       <c r="C47" s="1"/>
       <c r="D47" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E47" s="5">
         <v>0</v>
@@ -1606,12 +1588,12 @@
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48" s="1">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="B48" s="1"/>
       <c r="C48" s="1"/>
       <c r="D48" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E48" s="5">
         <v>0</v>
@@ -1622,12 +1604,12 @@
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49" s="1">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1"/>
       <c r="C49" s="1"/>
       <c r="D49" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E49" s="5">
         <v>0</v>
@@ -1639,6 +1621,5 @@
   </sheetData>
   <phoneticPr fontId="4"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Assets/Hama/Item/ItemDB.xlsx
+++ b/Assets/Hama/Item/ItemDB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiroa\Desktop\制作関連\Unity\30_Seconds2020334f1\Assets\Hama\Item\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\30s_rise1\Assets\Hama\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D289F8A8-3EB3-4220-8A38-6869E8320F69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C853407-29E7-49D4-BDF1-787ADF8361DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3735" yWindow="1515" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
   <si>
     <t>ID</t>
   </si>
@@ -286,6 +286,10 @@
   </si>
   <si>
     <t>InteractFlag</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/blacklight_icon.png</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -627,7 +631,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -965,7 +969,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>

--- a/Assets/Hama/Item/ItemDB.xlsx
+++ b/Assets/Hama/Item/ItemDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\30s_rise1\Assets\Hama\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0C853407-29E7-49D4-BDF1-787ADF8361DF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF90BA9-1B36-4987-A44C-FA075965CD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -289,7 +289,31 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Assets/Hama/Resources/Item/RoomA/blacklight_icon.png</t>
+    <t>Assets/Hama/Resources/Item/RoomA/ICON_BLACKLIGHT.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/ICON_CYLINDER.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/ICON_KEY_A.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/ICON_APPLE.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/ICON_KEY_B.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/ICON_LAMPHINT.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/ICON_MYSTERY_1_HINT.png</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -630,8 +654,8 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -943,7 +967,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1162,7 +1186,7 @@
         <v>51</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -1206,7 +1230,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -1355,7 +1379,7 @@
         <v>51</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -1471,7 +1495,7 @@
         <v>55</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -1532,7 +1556,7 @@
         <v>74</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>

--- a/Assets/Hama/Item/ItemDB.xlsx
+++ b/Assets/Hama/Item/ItemDB.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\30s_rise1\Assets\Hama\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EAF90BA9-1B36-4987-A44C-FA075965CD4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F6A6E9-CF59-413D-97C4-DBEB27725873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -314,6 +314,24 @@
   </si>
   <si>
     <t>Assets/Hama/Resources/Item/RoomB/ICON_MYSTERY_1_HINT.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>絵具</t>
+    <rPh sb="0" eb="2">
+      <t>エノグ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>紫のチューリップが輝いている</t>
+  </si>
+  <si>
+    <t>美しさを感じる紫色の塗料</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>B絵画(使用後)</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -321,7 +339,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -357,6 +375,26 @@
       <family val="3"/>
       <charset val="128"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -413,7 +451,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -434,6 +472,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -655,7 +696,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+      <selection activeCell="D36" sqref="D36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -1429,7 +1470,7 @@
       </c>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <v>33</v>
       </c>
@@ -1450,12 +1491,16 @@
       </c>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <v>34</v>
       </c>
-      <c r="B36" s="8"/>
-      <c r="C36" s="2"/>
+      <c r="B36" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="C36" s="9" t="s">
+        <v>97</v>
+      </c>
       <c r="D36" s="9" t="s">
         <v>85</v>
       </c>
@@ -1465,14 +1510,20 @@
       <c r="F36" s="4">
         <v>0</v>
       </c>
-      <c r="G36" s="2"/>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="G36" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <v>35</v>
       </c>
-      <c r="B37" s="8"/>
-      <c r="C37" s="2"/>
+      <c r="B37" s="13" t="s">
+        <v>98</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>96</v>
+      </c>
       <c r="D37" s="9" t="s">
         <v>85</v>
       </c>
@@ -1484,7 +1535,7 @@
       </c>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <v>36</v>
       </c>

--- a/Assets/Hama/Item/ItemDB.xlsx
+++ b/Assets/Hama/Item/ItemDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\30s_rise1\Assets\Hama\Item\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiroa\OneDrive\デスクトップ\制作関連\Unity\30_Seconds2020334f1\Assets\Hama\Item\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19F6A6E9-CF59-413D-97C4-DBEB27725873}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D90E8E-5BE2-4D9E-9FCE-F0327A01D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="148" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
   <si>
     <t>ID</t>
   </si>
@@ -217,9 +217,6 @@
     <t>別の色に染まったようだ…</t>
   </si>
   <si>
-    <t>ゴール鍵Ｂ</t>
-  </si>
-  <si>
     <t>青ランプ(消灯)</t>
   </si>
   <si>
@@ -277,43 +274,11 @@
     <t>ダミー4</t>
   </si>
   <si>
-    <t>Assets/Hama/Resources/Item/1024px-Multiplication_Sign.svg.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>EnableTake</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
     <t>InteractFlag</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomA/ICON_BLACKLIGHT.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomA/ICON_CYLINDER.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomA/ICON_KEY_A.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/ICON_APPLE.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/ICON_KEY_B.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/ICON_LAMPHINT.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/ICON_MYSTERY_1_HINT.png</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -332,6 +297,162 @@
   </si>
   <si>
     <t>B絵画(使用後)</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/A_Painting_1.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/A_Painting_2.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Blacklight.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Cylinder.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Gole_Door01.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Gole_Door04.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Key_GoalA.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Key_Hole.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Paint.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Pedestal_Off.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Pedestal_On.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Sleeve_Desk_01.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Sleeve_Desk_02.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Tank.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Upright_Piano.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomA/Water_In_Tank.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Apple.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/B_Painting_1.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Gole_Door01.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Gole_Door04.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ゴール鍵Ｂ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Key_GoalB.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Green_Off.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Green_On.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Hint.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Red_Off.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Red_On.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Yellow_Off.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Yellow_On.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Memo.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Music_Box_Off.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Music_Box_On.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/B_Painting_2.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/switch_01.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Vase_White.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Vase_Purple.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Key_Hole.png</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -339,7 +460,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -396,6 +517,28 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="ＭＳ ゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -451,7 +594,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -475,6 +618,9 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -695,19 +841,20 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="D36" sqref="D36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24" customWidth="1"/>
+    <col min="2" max="2" width="30.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
-    <col min="4" max="5" width="25.42578125" customWidth="1"/>
+    <col min="4" max="4" width="65" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="25.42578125" customWidth="1"/>
     <col min="6" max="6" width="25.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -724,13 +871,13 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>0</v>
       </c>
@@ -741,17 +888,17 @@
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="E2" s="11">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F2" s="4">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -762,7 +909,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -772,7 +919,7 @@
       </c>
       <c r="G3" s="2"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -783,20 +930,20 @@
         <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
       </c>
       <c r="F4" s="4">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -807,7 +954,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>85</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -823,7 +970,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -833,9 +980,7 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="4">
         <v>0</v>
       </c>
@@ -850,7 +995,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>5</v>
       </c>
@@ -860,9 +1005,7 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="D7" s="9"/>
       <c r="E7" s="4">
         <v>0</v>
       </c>
@@ -877,7 +1020,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>6</v>
       </c>
@@ -888,7 +1031,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>85</v>
+        <v>96</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -898,7 +1041,7 @@
       </c>
       <c r="G8" s="2"/>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>7</v>
       </c>
@@ -909,7 +1052,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -922,7 +1065,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>8</v>
       </c>
@@ -933,7 +1076,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -949,7 +1092,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>9</v>
       </c>
@@ -960,7 +1103,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>85</v>
+        <v>90</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -976,7 +1119,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>10</v>
       </c>
@@ -987,7 +1130,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>85</v>
+        <v>106</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -997,7 +1140,7 @@
       </c>
       <c r="G12" s="2"/>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>11</v>
       </c>
@@ -1008,7 +1151,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>89</v>
+        <v>95</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1023,7 +1166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>12</v>
       </c>
@@ -1034,7 +1177,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -1046,16 +1189,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A15" s="2">
+    <row r="15" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="15">
         <v>13</v>
       </c>
-      <c r="B15" s="8" t="s">
+      <c r="B15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="C15" s="2"/>
-      <c r="D15" s="9" t="s">
-        <v>85</v>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1071,7 +1214,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>14</v>
       </c>
@@ -1082,7 +1225,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>85</v>
+        <v>101</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1092,7 +1235,7 @@
       </c>
       <c r="G16" s="2"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <v>15</v>
       </c>
@@ -1101,7 +1244,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="9" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -1111,7 +1254,7 @@
       </c>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <v>16</v>
       </c>
@@ -1122,7 +1265,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>85</v>
+        <v>107</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -1132,7 +1275,7 @@
       </c>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <v>17</v>
       </c>
@@ -1143,7 +1286,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>85</v>
+        <v>105</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -1153,7 +1296,7 @@
       </c>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <v>18</v>
       </c>
@@ -1163,9 +1306,7 @@
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="D20" s="9"/>
       <c r="E20" s="4">
         <v>0</v>
       </c>
@@ -1174,7 +1315,7 @@
       </c>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <v>19</v>
       </c>
@@ -1184,9 +1325,7 @@
       <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="D21" s="9"/>
       <c r="E21" s="4">
         <v>0</v>
       </c>
@@ -1195,7 +1334,7 @@
       </c>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <v>20</v>
       </c>
@@ -1205,9 +1344,7 @@
       <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="D22" s="9"/>
       <c r="E22" s="4">
         <v>0</v>
       </c>
@@ -1216,7 +1353,7 @@
       </c>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <v>21</v>
       </c>
@@ -1227,7 +1364,7 @@
         <v>51</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>90</v>
+        <v>98</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -1239,7 +1376,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <v>22</v>
       </c>
@@ -1250,7 +1387,7 @@
         <v>53</v>
       </c>
       <c r="D24" s="9" t="s">
-        <v>85</v>
+        <v>109</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -1260,7 +1397,7 @@
       </c>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <v>23</v>
       </c>
@@ -1271,7 +1408,7 @@
         <v>55</v>
       </c>
       <c r="D25" s="9" t="s">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -1283,7 +1420,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <v>24</v>
       </c>
@@ -1294,7 +1431,7 @@
         <v>23</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>85</v>
+        <v>110</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -1304,7 +1441,7 @@
       </c>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <v>25</v>
       </c>
@@ -1315,7 +1452,7 @@
         <v>25</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>85</v>
+        <v>111</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -1325,7 +1462,7 @@
       </c>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <v>26</v>
       </c>
@@ -1336,7 +1473,7 @@
         <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>85</v>
+        <v>128</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -1346,7 +1483,7 @@
       </c>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <v>27</v>
       </c>
@@ -1357,7 +1494,7 @@
         <v>60</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -1367,7 +1504,7 @@
       </c>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <v>28</v>
       </c>
@@ -1378,7 +1515,7 @@
         <v>62</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>85</v>
+        <v>126</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -1388,7 +1525,7 @@
       </c>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <v>29</v>
       </c>
@@ -1399,7 +1536,7 @@
         <v>64</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>85</v>
+        <v>127</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -1409,18 +1546,18 @@
       </c>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="8" t="s">
-        <v>65</v>
+      <c r="B32" s="17" t="s">
+        <v>112</v>
       </c>
       <c r="C32" s="2" t="s">
         <v>51</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>92</v>
+        <v>113</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -1432,16 +1569,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="9" t="s">
-        <v>85</v>
+        <v>114</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -1451,16 +1588,16 @@
       </c>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="9" t="s">
-        <v>85</v>
+        <v>115</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -1475,13 +1612,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>69</v>
-      </c>
       <c r="D35" s="9" t="s">
-        <v>85</v>
+        <v>125</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
@@ -1496,13 +1633,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>97</v>
+        <v>88</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>85</v>
+        <v>100</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -1519,13 +1656,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>96</v>
+        <v>87</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>85</v>
+        <v>124</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -1540,13 +1677,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>93</v>
+        <v>116</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -1558,16 +1695,16 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="9" t="s">
-        <v>85</v>
+        <v>119</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -1577,16 +1714,16 @@
       </c>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="9" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -1596,18 +1733,18 @@
       </c>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>74</v>
-      </c>
       <c r="D41" s="9" t="s">
-        <v>91</v>
+        <v>108</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -1619,18 +1756,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>76</v>
-      </c>
       <c r="D42" s="9" t="s">
-        <v>85</v>
+        <v>122</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -1640,18 +1777,18 @@
       </c>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>78</v>
-      </c>
       <c r="D43" s="9" t="s">
-        <v>85</v>
+        <v>123</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -1661,16 +1798,16 @@
       </c>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="9" t="s">
-        <v>85</v>
+        <v>117</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
@@ -1680,16 +1817,16 @@
       </c>
       <c r="G44" s="2"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="9" t="s">
-        <v>85</v>
+        <v>118</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -1699,17 +1836,15 @@
       </c>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <v>44</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="D46" s="9"/>
       <c r="E46" s="4">
         <v>0</v>
       </c>
@@ -1720,17 +1855,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="D47" s="9"/>
       <c r="E47" s="4">
         <v>0</v>
       </c>
@@ -1741,17 +1874,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C48" s="2"/>
-      <c r="D48" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="D48" s="9"/>
       <c r="E48" s="4">
         <v>0</v>
       </c>
@@ -1762,17 +1893,15 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>47</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C49" s="2"/>
-      <c r="D49" s="9" t="s">
-        <v>85</v>
-      </c>
+      <c r="D49" s="9"/>
       <c r="E49" s="4">
         <v>0</v>
       </c>

--- a/Assets/Hama/Item/ItemDB.xlsx
+++ b/Assets/Hama/Item/ItemDB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hiroa\OneDrive\デスクトップ\制作関連\Unity\30_Seconds2020334f1\Assets\Hama\Item\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f23e4e8173075e7b/デスクトップ/制作関連/Unity/30_Seconds2020334f1/Assets/Hama/Item/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D90E8E-5BE2-4D9E-9FCE-F0327A01D29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="14_{F90AA949-A64D-4295-99E0-7486E3BC1D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14295" yWindow="0" windowWidth="14610" windowHeight="15585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="シート1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="111">
   <si>
     <t>ID</t>
   </si>
@@ -172,9 +172,6 @@
     <t>シリンダーが刺さっている</t>
   </si>
   <si>
-    <t>ゴール鍵Ａ</t>
-  </si>
-  <si>
     <t>どこかで使えそうだ</t>
   </si>
   <si>
@@ -260,18 +257,6 @@
   </si>
   <si>
     <t>赤ランプ(点灯)</t>
-  </si>
-  <si>
-    <t>ダミー1</t>
-  </si>
-  <si>
-    <t>ダミー2</t>
-  </si>
-  <si>
-    <t>ダミー3</t>
-  </si>
-  <si>
-    <t>ダミー4</t>
   </si>
   <si>
     <t>EnableTake</t>
@@ -296,10 +281,6 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>B絵画(使用後)</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Assets/Hama/Resources/Item/RoomA/</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -324,22 +305,10 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Assets/Hama/Resources/Item/RoomA/Gole_Door01.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomA/Gole_Door04.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Assets/Hama/Resources/Item/RoomA/Key_GoalA.png</t>
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Assets/Hama/Resources/Item/RoomA/Key_Hole.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
     <t>Assets/Hama/Resources/Item/RoomA/Paint.png</t>
     <phoneticPr fontId="5"/>
   </si>
@@ -372,19 +341,47 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Apple.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/B_Painting_1.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Gole_Door01.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Gole_Door04.png</t>
+    <r>
+      <t>B</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>絵画</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="ＭＳ ゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+      </rPr>
+      <t>使用後</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
     <phoneticPr fontId="5"/>
   </si>
   <si>
@@ -392,67 +389,49 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Key_GoalB.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Green_Off.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Green_On.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Hint.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Red_Off.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Red_On.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Yellow_Off.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Lamp_Yellow_On.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Memo.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Music_Box_Off.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Music_Box_On.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/B_Painting_2.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/switch_01.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Vase_White.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Vase_Purple.png</t>
-    <phoneticPr fontId="5"/>
-  </si>
-  <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Key_Hole.png</t>
+    <t>宝箱（オープン）</t>
+    <rPh sb="0" eb="2">
+      <t>タカラバコ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ゴール鍵Ａ</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomCommon/TreasureChest_Close.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>宝箱（クローズ）</t>
+    <rPh sb="0" eb="2">
+      <t>タカラバコ</t>
+    </rPh>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>ダミー</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomCommon/TreasureChest_Open.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomCommon/Gole_Door01.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomCommon/Gole_Door04.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomCommon/Key_Hole.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Assets/Hama/Resources/Item/RoomB/Key_GoalB</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -594,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -620,6 +599,7 @@
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -636,6 +616,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -842,7 +826,7 @@
   <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -871,10 +855,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -888,7 +872,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>92</v>
+        <v>86</v>
       </c>
       <c r="E2" s="11">
         <v>0</v>
@@ -909,7 +893,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>93</v>
+        <v>87</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -930,7 +914,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>103</v>
+        <v>94</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -954,7 +938,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -980,7 +964,9 @@
       <c r="C6" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="9"/>
+      <c r="D6" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="E6" s="4">
         <v>0</v>
       </c>
@@ -1005,7 +991,9 @@
       <c r="C7" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="E7" s="4">
         <v>0</v>
       </c>
@@ -1031,7 +1019,7 @@
         <v>23</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>96</v>
+        <v>107</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1052,7 +1040,7 @@
         <v>25</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>97</v>
+        <v>108</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1076,7 +1064,7 @@
         <v>27</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>99</v>
+        <v>109</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1103,7 +1091,7 @@
         <v>20</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1130,7 +1118,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="9" t="s">
-        <v>106</v>
+        <v>97</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1151,7 +1139,7 @@
         <v>34</v>
       </c>
       <c r="D13" s="9" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1177,7 +1165,7 @@
         <v>36</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -1198,7 +1186,7 @@
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>90</v>
+        <v>84</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1225,7 +1213,7 @@
         <v>40</v>
       </c>
       <c r="D16" s="9" t="s">
-        <v>101</v>
+        <v>92</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1244,7 +1232,7 @@
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="9" t="s">
-        <v>102</v>
+        <v>93</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -1265,7 +1253,7 @@
         <v>43</v>
       </c>
       <c r="D18" s="9" t="s">
-        <v>107</v>
+        <v>98</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -1286,7 +1274,7 @@
         <v>45</v>
       </c>
       <c r="D19" s="9" t="s">
-        <v>105</v>
+        <v>96</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -1306,7 +1294,9 @@
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="D20" s="9"/>
+      <c r="D20" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="E20" s="4">
         <v>0</v>
       </c>
@@ -1325,7 +1315,9 @@
       <c r="C21" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D21" s="9"/>
+      <c r="D21" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="E21" s="4">
         <v>0</v>
       </c>
@@ -1344,7 +1336,9 @@
       <c r="C22" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="9"/>
+      <c r="D22" s="9" t="s">
+        <v>84</v>
+      </c>
       <c r="E22" s="4">
         <v>0</v>
       </c>
@@ -1357,14 +1351,14 @@
       <c r="A23" s="2">
         <v>21</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>51</v>
-      </c>
       <c r="D23" s="9" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -1381,13 +1375,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>53</v>
-      </c>
       <c r="D24" s="9" t="s">
-        <v>109</v>
+        <v>85</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -1402,13 +1396,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>55</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>121</v>
+        <v>85</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -1425,13 +1419,13 @@
         <v>24</v>
       </c>
       <c r="B26" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>23</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -1446,13 +1440,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C27" s="2" t="s">
         <v>25</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -1467,13 +1461,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C28" s="2" t="s">
         <v>27</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>128</v>
+        <v>109</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -1488,13 +1482,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>60</v>
-      </c>
       <c r="D29" s="9" t="s">
-        <v>91</v>
+        <v>85</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -1509,13 +1503,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>62</v>
-      </c>
       <c r="D30" s="9" t="s">
-        <v>126</v>
+        <v>85</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -1530,13 +1524,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="C31" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C31" s="2" t="s">
-        <v>64</v>
-      </c>
       <c r="D31" s="9" t="s">
-        <v>127</v>
+        <v>85</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -1550,14 +1544,14 @@
       <c r="A32" s="2">
         <v>30</v>
       </c>
-      <c r="B32" s="17" t="s">
-        <v>112</v>
+      <c r="B32" s="18" t="s">
+        <v>100</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -1574,11 +1568,11 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="9" t="s">
-        <v>114</v>
+        <v>85</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -1593,11 +1587,11 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="9" t="s">
-        <v>115</v>
+        <v>85</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -1612,13 +1606,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="C35" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C35" s="2" t="s">
-        <v>68</v>
-      </c>
       <c r="D35" s="9" t="s">
-        <v>125</v>
+        <v>85</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
@@ -1633,13 +1627,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
-        <v>86</v>
+        <v>81</v>
       </c>
       <c r="C36" s="9" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="D36" s="9" t="s">
-        <v>100</v>
+        <v>91</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -1656,13 +1650,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>89</v>
+        <v>99</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>124</v>
+        <v>85</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -1677,13 +1671,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>116</v>
+        <v>85</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -1700,11 +1694,11 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="9" t="s">
-        <v>119</v>
+        <v>85</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -1719,11 +1713,11 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="9" t="s">
-        <v>120</v>
+        <v>85</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -1738,13 +1732,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="C41" s="2" t="s">
-        <v>73</v>
-      </c>
       <c r="D41" s="9" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -1761,13 +1755,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C42" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C42" s="2" t="s">
-        <v>75</v>
-      </c>
       <c r="D42" s="9" t="s">
-        <v>122</v>
+        <v>85</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -1782,13 +1776,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="C43" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C43" s="2" t="s">
-        <v>77</v>
-      </c>
       <c r="D43" s="9" t="s">
-        <v>123</v>
+        <v>85</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -1803,11 +1797,11 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="9" t="s">
-        <v>117</v>
+        <v>85</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
@@ -1822,11 +1816,11 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="9" t="s">
-        <v>118</v>
+        <v>85</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -1840,46 +1834,46 @@
       <c r="A46" s="2">
         <v>44</v>
       </c>
-      <c r="B46" s="2" t="s">
-        <v>80</v>
+      <c r="B46" s="17" t="s">
+        <v>104</v>
       </c>
       <c r="C46" s="2"/>
-      <c r="D46" s="9"/>
+      <c r="D46" s="9" t="s">
+        <v>103</v>
+      </c>
       <c r="E46" s="4">
         <v>0</v>
       </c>
       <c r="F46" s="4">
         <v>0</v>
       </c>
-      <c r="G46" s="2">
-        <v>1</v>
-      </c>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <v>45</v>
       </c>
-      <c r="B47" s="2" t="s">
-        <v>81</v>
+      <c r="B47" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="C47" s="2"/>
-      <c r="D47" s="9"/>
+      <c r="D47" s="9" t="s">
+        <v>106</v>
+      </c>
       <c r="E47" s="4">
         <v>0</v>
       </c>
       <c r="F47" s="4">
         <v>0</v>
       </c>
-      <c r="G47" s="2">
-        <v>1</v>
-      </c>
+      <c r="G47" s="2"/>
     </row>
     <row r="48" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <v>46</v>
       </c>
-      <c r="B48" s="2" t="s">
-        <v>82</v>
+      <c r="B48" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="9"/>
@@ -1889,16 +1883,14 @@
       <c r="F48" s="4">
         <v>0</v>
       </c>
-      <c r="G48" s="2">
-        <v>1</v>
-      </c>
+      <c r="G48" s="2"/>
     </row>
     <row r="49" spans="1:7" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <v>47</v>
       </c>
-      <c r="B49" s="2" t="s">
-        <v>83</v>
+      <c r="B49" s="17" t="s">
+        <v>105</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="9"/>
@@ -1908,9 +1900,7 @@
       <c r="F49" s="4">
         <v>0</v>
       </c>
-      <c r="G49" s="2">
-        <v>1</v>
-      </c>
+      <c r="G49" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="5"/>

--- a/Assets/Hama/Item/ItemDB.xlsx
+++ b/Assets/Hama/Item/ItemDB.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f23e4e8173075e7b/デスクトップ/制作関連/Unity/30_Seconds2020334f1/Assets/Hama/Item/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="14_{F90AA949-A64D-4295-99E0-7486E3BC1D9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="2" documentId="8_{5A43DD4C-8A0A-496D-B281-82F12BDCE8CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CB575F25-367F-4839-8087-74A92DE143B7}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="2670" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="シート1" sheetId="1" r:id="rId1"/>
+    <sheet name="ItemDB" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
@@ -88,9 +88,6 @@
     <t>後攻プレイヤー</t>
   </si>
   <si>
-    <t>Ａ出口ドア</t>
-  </si>
-  <si>
     <t>開かない…</t>
   </si>
   <si>
@@ -185,9 +182,6 @@
   </si>
   <si>
     <t>何かの暗号だろうか…</t>
-  </si>
-  <si>
-    <t>Ｂ出口ドア</t>
   </si>
   <si>
     <t>Ｂ出口ドア(鍵差込後)</t>
@@ -431,7 +425,15 @@
     <phoneticPr fontId="5"/>
   </si>
   <si>
-    <t>Assets/Hama/Resources/Item/RoomB/Key_GoalB</t>
+    <t>Assets/Hama/Resources/Item/RoomB/Key_GoalB.png</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Ａ出口ドア</t>
+    <phoneticPr fontId="5"/>
+  </si>
+  <si>
+    <t>Ｂ出口ドア</t>
     <phoneticPr fontId="5"/>
   </si>
 </sst>
@@ -616,10 +618,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -825,8 +823,8 @@
   </sheetPr>
   <dimension ref="A1:I49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
+    <sheetView tabSelected="1" topLeftCell="A15" workbookViewId="0">
+      <selection activeCell="B32" sqref="B32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -855,10 +853,10 @@
         <v>4</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -872,7 +870,7 @@
         <v>8</v>
       </c>
       <c r="D2" s="9" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E2" s="11">
         <v>0</v>
@@ -893,7 +891,7 @@
         <v>10</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="E3" s="4">
         <v>0</v>
@@ -914,7 +912,7 @@
         <v>12</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E4" s="4">
         <v>0</v>
@@ -938,7 +936,7 @@
         <v>14</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E5" s="4">
         <v>0</v>
@@ -965,7 +963,7 @@
         <v>17</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E6" s="4">
         <v>0</v>
@@ -992,7 +990,7 @@
         <v>20</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E7" s="4">
         <v>0</v>
@@ -1012,14 +1010,14 @@
       <c r="A8" s="2">
         <v>6</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="D8" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E8" s="4">
         <v>0</v>
@@ -1034,13 +1032,13 @@
         <v>7</v>
       </c>
       <c r="B9" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>25</v>
-      </c>
       <c r="D9" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E9" s="4">
         <v>0</v>
@@ -1058,13 +1056,13 @@
         <v>8</v>
       </c>
       <c r="B10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
-      </c>
       <c r="D10" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E10" s="4">
         <v>0</v>
@@ -1077,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1085,13 +1083,13 @@
         <v>9</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D11" s="9" t="s">
-        <v>84</v>
+        <v>107</v>
       </c>
       <c r="E11" s="4">
         <v>0</v>
@@ -1104,7 +1102,7 @@
         <v>1</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1112,13 +1110,13 @@
         <v>10</v>
       </c>
       <c r="B12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>32</v>
-      </c>
       <c r="D12" s="9" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E12" s="4">
         <v>0</v>
@@ -1133,13 +1131,13 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="C13" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="2" t="s">
-        <v>34</v>
-      </c>
       <c r="D13" s="9" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E13" s="4">
         <v>0</v>
@@ -1159,13 +1157,13 @@
         <v>12</v>
       </c>
       <c r="B14" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="D14" s="9" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="E14" s="4">
         <v>0</v>
@@ -1182,11 +1180,11 @@
         <v>13</v>
       </c>
       <c r="B15" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E15" s="4">
         <v>0</v>
@@ -1199,7 +1197,7 @@
         <v>1</v>
       </c>
       <c r="I15" s="5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="12.75" x14ac:dyDescent="0.2">
@@ -1207,13 +1205,13 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="D16" s="9" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E16" s="4">
         <v>0</v>
@@ -1228,11 +1226,11 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2"/>
       <c r="D17" s="9" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E17" s="4">
         <v>0</v>
@@ -1247,13 +1245,13 @@
         <v>16</v>
       </c>
       <c r="B18" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C18" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>43</v>
-      </c>
       <c r="D18" s="9" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="E18" s="4">
         <v>0</v>
@@ -1268,13 +1266,13 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>45</v>
-      </c>
       <c r="D19" s="9" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E19" s="4">
         <v>0</v>
@@ -1289,13 +1287,13 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C20" s="2" t="s">
         <v>20</v>
       </c>
       <c r="D20" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E20" s="4">
         <v>0</v>
@@ -1310,13 +1308,13 @@
         <v>19</v>
       </c>
       <c r="B21" s="8" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="D21" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E21" s="4">
         <v>0</v>
@@ -1331,13 +1329,13 @@
         <v>20</v>
       </c>
       <c r="B22" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="C22" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>49</v>
-      </c>
       <c r="D22" s="9" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E22" s="4">
         <v>0</v>
@@ -1352,13 +1350,13 @@
         <v>21</v>
       </c>
       <c r="B23" s="18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="9" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="E23" s="4">
         <v>0</v>
@@ -1375,13 +1373,13 @@
         <v>22</v>
       </c>
       <c r="B24" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C24" s="2" t="s">
-        <v>52</v>
-      </c>
       <c r="D24" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E24" s="4">
         <v>0</v>
@@ -1396,13 +1394,13 @@
         <v>23</v>
       </c>
       <c r="B25" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>54</v>
-      </c>
       <c r="D25" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E25" s="4">
         <v>0</v>
@@ -1418,14 +1416,14 @@
       <c r="A26" s="2">
         <v>24</v>
       </c>
-      <c r="B26" s="8" t="s">
-        <v>55</v>
+      <c r="B26" s="18" t="s">
+        <v>110</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E26" s="4">
         <v>0</v>
@@ -1440,13 +1438,13 @@
         <v>25</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="D27" s="9" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="E27" s="4">
         <v>0</v>
@@ -1461,13 +1459,13 @@
         <v>26</v>
       </c>
       <c r="B28" s="8" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E28" s="4">
         <v>0</v>
@@ -1482,13 +1480,13 @@
         <v>27</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D29" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E29" s="4">
         <v>0</v>
@@ -1503,13 +1501,13 @@
         <v>28</v>
       </c>
       <c r="B30" s="8" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D30" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E30" s="4">
         <v>0</v>
@@ -1524,13 +1522,13 @@
         <v>29</v>
       </c>
       <c r="B31" s="8" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D31" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E31" s="4">
         <v>0</v>
@@ -1545,13 +1543,13 @@
         <v>30</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D32" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="E32" s="4">
         <v>0</v>
@@ -1568,11 +1566,11 @@
         <v>31</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C33" s="2"/>
       <c r="D33" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E33" s="4">
         <v>0</v>
@@ -1587,11 +1585,11 @@
         <v>32</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="C34" s="2"/>
       <c r="D34" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E34" s="4">
         <v>0</v>
@@ -1606,13 +1604,13 @@
         <v>33</v>
       </c>
       <c r="B35" s="8" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D35" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E35" s="4">
         <v>0</v>
@@ -1627,13 +1625,13 @@
         <v>34</v>
       </c>
       <c r="B36" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="C36" s="9" t="s">
         <v>81</v>
       </c>
-      <c r="C36" s="9" t="s">
-        <v>83</v>
-      </c>
       <c r="D36" s="9" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E36" s="4">
         <v>0</v>
@@ -1650,13 +1648,13 @@
         <v>35</v>
       </c>
       <c r="B37" s="13" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C37" s="14" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D37" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E37" s="4">
         <v>0</v>
@@ -1671,13 +1669,13 @@
         <v>36</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D38" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E38" s="4">
         <v>0</v>
@@ -1694,11 +1692,11 @@
         <v>37</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C39" s="2"/>
       <c r="D39" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E39" s="4">
         <v>0</v>
@@ -1713,11 +1711,11 @@
         <v>38</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C40" s="2"/>
       <c r="D40" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E40" s="4">
         <v>0</v>
@@ -1732,13 +1730,13 @@
         <v>39</v>
       </c>
       <c r="B41" s="3" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D41" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E41" s="4">
         <v>0</v>
@@ -1755,13 +1753,13 @@
         <v>40</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="D42" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E42" s="4">
         <v>0</v>
@@ -1776,13 +1774,13 @@
         <v>41</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="D43" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E43" s="4">
         <v>0</v>
@@ -1797,11 +1795,11 @@
         <v>42</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C44" s="2"/>
       <c r="D44" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E44" s="4">
         <v>0</v>
@@ -1816,11 +1814,11 @@
         <v>43</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C45" s="2"/>
       <c r="D45" s="9" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="E45" s="4">
         <v>0</v>
@@ -1835,11 +1833,11 @@
         <v>44</v>
       </c>
       <c r="B46" s="17" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C46" s="2"/>
       <c r="D46" s="9" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="E46" s="4">
         <v>0</v>
@@ -1854,11 +1852,11 @@
         <v>45</v>
       </c>
       <c r="B47" s="17" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C47" s="2"/>
       <c r="D47" s="9" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="E47" s="4">
         <v>0</v>
@@ -1873,7 +1871,7 @@
         <v>46</v>
       </c>
       <c r="B48" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C48" s="2"/>
       <c r="D48" s="9"/>
@@ -1890,7 +1888,7 @@
         <v>47</v>
       </c>
       <c r="B49" s="17" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="C49" s="2"/>
       <c r="D49" s="9"/>
